--- a/情语/3.27.cs.50.51.xlsx
+++ b/情语/3.27.cs.50.51.xlsx
@@ -400,410 +400,410 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>鱼涛</v>
+        <v>潘迎春</v>
       </c>
       <c r="B2" t="str">
-        <v>18791008308</v>
+        <v>17056578282</v>
       </c>
       <c r="C2" t="str">
-        <v>561</v>
+        <v>644</v>
       </c>
       <c r="D2" t="str">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="E2" t="str">
-        <v>2019-03-27 09:27:59</v>
+        <v>2019-03-27 10:12:29</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>范小平</v>
+        <v>金永亮</v>
       </c>
       <c r="B3" t="str">
-        <v>15283689888</v>
+        <v>13644739333</v>
       </c>
       <c r="C3" t="str">
-        <v>652</v>
+        <v>645</v>
       </c>
       <c r="D3" t="str">
-        <v>6500</v>
+        <v>1万</v>
       </c>
       <c r="E3" t="str">
-        <v>2019-03-27 09:16:45</v>
+        <v>2019-03-27 09:11:31</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>唐小云</v>
+        <v>靳玉鹏</v>
       </c>
       <c r="B4" t="str">
-        <v>15284841881</v>
+        <v>13780311660</v>
       </c>
       <c r="C4" t="str">
-        <v>669</v>
+        <v>609</v>
       </c>
       <c r="D4" t="str">
-        <v>5500</v>
+        <v>2500</v>
       </c>
       <c r="E4" t="str">
-        <v>2019-03-27 09:01:19</v>
+        <v>2019-03-27 13:03:50</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>艾岩</v>
+        <v>李洋</v>
       </c>
       <c r="B5" t="str">
-        <v>17857531691</v>
+        <v>13244360011</v>
       </c>
       <c r="C5" t="str">
-        <v>591</v>
+        <v>613</v>
       </c>
       <c r="D5" t="str">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="E5" t="str">
-        <v>2019-03-27 09:11:35</v>
+        <v>2019-03-27 14:18:13</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>方小冰</v>
+        <v>周恋</v>
       </c>
       <c r="B6" t="str">
-        <v>18314323682</v>
+        <v>13925119359</v>
       </c>
       <c r="C6" t="str">
-        <v>476</v>
+        <v>638</v>
       </c>
       <c r="D6" t="str">
         <v>500</v>
       </c>
       <c r="E6" t="str">
-        <v>2019-03-27 09:00:19</v>
+        <v>2019-03-27 09:41:01</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>李语菲</v>
+        <v>艾岩</v>
       </c>
       <c r="B7" t="str">
-        <v>13413086667</v>
+        <v>17857531691</v>
       </c>
       <c r="C7" t="str">
         <v>591</v>
       </c>
       <c r="D7" t="str">
-        <v>1700</v>
+        <v>500</v>
       </c>
       <c r="E7" t="str">
-        <v>2019-03-27 09:50:05</v>
+        <v>2019-03-27 10:59:46</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>朱丽华</v>
+        <v>韦振保</v>
       </c>
       <c r="B8" t="str">
-        <v>13153919599</v>
+        <v>13736182424</v>
       </c>
       <c r="C8" t="str">
-        <v>590</v>
+        <v>574</v>
       </c>
       <c r="D8" t="str">
-        <v>1600</v>
+        <v>800</v>
       </c>
       <c r="E8" t="str">
-        <v>2019-03-27 09:09:22</v>
+        <v>2019-03-27 14:32:30</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>魏永超</v>
+        <v>何文龙</v>
       </c>
       <c r="B9" t="str">
-        <v>13065333685</v>
+        <v>18405657588</v>
       </c>
       <c r="C9" t="str">
-        <v>584</v>
+        <v>509</v>
       </c>
       <c r="D9" t="str">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="E9" t="str">
-        <v>2019-03-27 09:26:05</v>
+        <v>2019-03-27 13:03:53</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>王伟达</v>
+        <v>魏永超</v>
       </c>
       <c r="B10" t="str">
-        <v>15824482006</v>
+        <v>13065333685</v>
       </c>
       <c r="C10" t="str">
-        <v>620</v>
+        <v>584</v>
       </c>
       <c r="D10" t="str">
-        <v>2000</v>
+        <v>150</v>
       </c>
       <c r="E10" t="str">
-        <v>2019-03-27 09:24:09</v>
+        <v>2019-03-27 12:55:22</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>魏永超</v>
+        <v>丁培祥</v>
       </c>
       <c r="B11" t="str">
-        <v>17624189879</v>
+        <v>13864997053</v>
       </c>
       <c r="C11" t="str">
-        <v>584</v>
+        <v>465</v>
       </c>
       <c r="D11" t="str">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="E11" t="str">
-        <v>2019-03-27 09:11:59</v>
+        <v>2019-03-27 15:00:59</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>崔红萍</v>
+        <v>邓利华</v>
       </c>
       <c r="B12" t="str">
-        <v>13423979809</v>
+        <v>15368001418</v>
       </c>
       <c r="C12" t="str">
-        <v>452</v>
+        <v>616</v>
       </c>
       <c r="D12" t="str">
-        <v>2500</v>
+        <v>300</v>
       </c>
       <c r="E12" t="str">
-        <v>2019-03-27 09:50:13</v>
+        <v>2019-03-27 10:22:30</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>秦伟</v>
+        <v>付善</v>
       </c>
       <c r="B13" t="str">
-        <v>13906811575</v>
+        <v>15195328333</v>
       </c>
       <c r="C13" t="str">
-        <v>611</v>
+        <v>553</v>
       </c>
       <c r="D13" t="str">
-        <v>9000</v>
+        <v>500</v>
       </c>
       <c r="E13" t="str">
-        <v>2019-03-27 09:05:26</v>
+        <v>2019-03-27 10:57:46</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>郑东旭</v>
+        <v>荀彦杰</v>
       </c>
       <c r="B14" t="str">
-        <v>15029933312</v>
+        <v>17806939887</v>
       </c>
       <c r="C14" t="str">
-        <v>661</v>
+        <v>626</v>
       </c>
       <c r="D14" t="str">
-        <v>1300</v>
+        <v>500</v>
       </c>
       <c r="E14" t="str">
-        <v>2019-03-27 09:40:39</v>
+        <v>2019-03-27 14:15:48</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>罗德林</v>
+        <v>凌战衡</v>
       </c>
       <c r="B15" t="str">
-        <v>17665352344</v>
+        <v>15869742209</v>
       </c>
       <c r="C15" t="str">
-        <v>606</v>
+        <v>650</v>
       </c>
       <c r="D15" t="str">
-        <v>600</v>
+        <v>5000</v>
       </c>
       <c r="E15" t="str">
-        <v>2019-03-27 09:01:17</v>
+        <v>2019-03-27 10:58:31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>郑鼎</v>
+        <v>朱丽华</v>
       </c>
       <c r="B16" t="str">
-        <v>13641931035</v>
+        <v>13153919599</v>
       </c>
       <c r="C16" t="str">
-        <v>642</v>
+        <v>590</v>
       </c>
       <c r="D16" t="str">
-        <v>3000</v>
+        <v>1600</v>
       </c>
       <c r="E16" t="str">
-        <v>2019-03-27 09:29:03</v>
+        <v>2019-03-27 13:36:47</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>王永良</v>
+        <v>何涛</v>
       </c>
       <c r="B17" t="str">
-        <v>15549908093</v>
+        <v>15681340301</v>
       </c>
       <c r="C17" t="str">
-        <v>571</v>
+        <v>578</v>
       </c>
       <c r="D17" t="str">
-        <v>300</v>
+        <v>未开通</v>
       </c>
       <c r="E17" t="str">
-        <v>2019-03-27 09:16:32</v>
+        <v>2019-03-27 10:35:12</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>金永亮</v>
+        <v>-</v>
       </c>
       <c r="B18" t="str">
-        <v>13644739333</v>
+        <v>2019-03-27 10:24:04</v>
       </c>
       <c r="C18" t="str">
-        <v>645</v>
+        <v>-</v>
       </c>
       <c r="D18" t="str">
-        <v>1万</v>
+        <v>-</v>
       </c>
       <c r="E18" t="str">
-        <v>2019-03-27 09:38:07</v>
+        <v>-</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>-</v>
+        <v>魏永超</v>
       </c>
       <c r="B19" t="str">
-        <v>2019-03-27 09:21:01</v>
+        <v>17624189879</v>
       </c>
       <c r="C19" t="str">
-        <v>-</v>
+        <v>584</v>
       </c>
       <c r="D19" t="str">
-        <v>-</v>
+        <v>150</v>
       </c>
       <c r="E19" t="str">
-        <v>-</v>
+        <v>2019-03-27 14:47:08</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>谭鹃</v>
+        <v>左自炳</v>
       </c>
       <c r="B20" t="str">
-        <v>13758784880</v>
+        <v>13971641919</v>
       </c>
       <c r="C20" t="str">
-        <v>485</v>
+        <v>613</v>
       </c>
       <c r="D20" t="str">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="E20" t="str">
-        <v>2019-03-27 09:03:39</v>
+        <v>2019-03-27 09:06:11</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>韦振保</v>
+        <v>阿不都萨拉木·阿不力米提</v>
       </c>
       <c r="B21" t="str">
-        <v>13736182424</v>
+        <v>13176888610</v>
       </c>
       <c r="C21" t="str">
-        <v>574</v>
+        <v>550</v>
       </c>
       <c r="D21" t="str">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="E21" t="str">
-        <v>2019-03-27 09:38:50</v>
+        <v>2019-03-27 13:41:51</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>阿不都萨拉木·阿不力米提</v>
+        <v>侯森</v>
       </c>
       <c r="B22" t="str">
-        <v>13176888610</v>
+        <v>15237690896</v>
       </c>
       <c r="C22" t="str">
-        <v>550</v>
+        <v>696</v>
       </c>
       <c r="D22" t="str">
-        <v>300</v>
+        <v>7000</v>
       </c>
       <c r="E22" t="str">
-        <v>2019-03-27 09:02:57</v>
+        <v>2019-03-27 11:09:46</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>靳玉鹏</v>
+        <v>崔红萍</v>
       </c>
       <c r="B23" t="str">
-        <v>13780311660</v>
+        <v>13423979809</v>
       </c>
       <c r="C23" t="str">
-        <v>609</v>
+        <v>452</v>
       </c>
       <c r="D23" t="str">
         <v>2500</v>
       </c>
       <c r="E23" t="str">
-        <v>2019-03-27 09:08:21</v>
+        <v>2019-03-27 13:48:43</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>林玮</v>
+        <v>郑东旭</v>
       </c>
       <c r="B24" t="str">
-        <v>18476829451</v>
+        <v>15029933312</v>
       </c>
       <c r="C24" t="str">
-        <v>690</v>
+        <v>661</v>
       </c>
       <c r="D24" t="str">
-        <v>3800</v>
+        <v>1300</v>
       </c>
       <c r="E24" t="str">
-        <v>2019-03-27 09:46:05</v>
+        <v>2019-03-27 15:02:12</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>张鑫</v>
+        <v>陈光成</v>
       </c>
       <c r="B25" t="str">
-        <v>16619922435</v>
+        <v>13710635946</v>
       </c>
       <c r="C25" t="str">
-        <v>550</v>
+        <v>618</v>
       </c>
       <c r="D25" t="str">
-        <v>1800</v>
+        <v>5000</v>
       </c>
       <c r="E25" t="str">
-        <v>2019-03-27 09:01:52</v>
+        <v>2019-03-27 14:46:44</v>
       </c>
     </row>
     <row r="26">
@@ -820,24 +820,24 @@
         <v>70</v>
       </c>
       <c r="E26" t="str">
-        <v>2019-03-27 09:12:40</v>
+        <v>2019-03-27 11:54:20</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>鱼涛</v>
+        <v>罗德林</v>
       </c>
       <c r="B27" t="str">
-        <v>13991006855</v>
+        <v>17665352344</v>
       </c>
       <c r="C27" t="str">
-        <v>561</v>
+        <v>606</v>
       </c>
       <c r="D27" t="str">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="E27" t="str">
-        <v>2019-03-27 09:37:54</v>
+        <v>2019-03-27 09:08:07</v>
       </c>
     </row>
     <row r="28">
@@ -854,398 +854,398 @@
         <v>500</v>
       </c>
       <c r="E28" t="str">
-        <v>2019-03-27 09:12:01</v>
+        <v>2019-03-27 12:40:09</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>熊伟</v>
+        <v>王伟达</v>
       </c>
       <c r="B29" t="str">
-        <v>18995988355</v>
+        <v>15824482006</v>
       </c>
       <c r="C29" t="str">
-        <v>644</v>
+        <v>620</v>
       </c>
       <c r="D29" t="str">
-        <v>600</v>
+        <v>2000</v>
       </c>
       <c r="E29" t="str">
-        <v>2019-03-27 09:06:43</v>
+        <v>2019-03-27 09:49:49</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>黄善东</v>
+        <v>王奇</v>
       </c>
       <c r="B30" t="str">
-        <v>18046771770</v>
+        <v>13619280575</v>
       </c>
       <c r="C30" t="str">
-        <v>440</v>
+        <v>410</v>
       </c>
       <c r="D30" t="str">
-        <v>3500</v>
+        <v>无</v>
       </c>
       <c r="E30" t="str">
-        <v>2019-03-27 09:21:23</v>
+        <v>2019-03-27 12:41:37</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>凌战衡</v>
+        <v>王永良</v>
       </c>
       <c r="B31" t="str">
-        <v>15869742209</v>
+        <v>15549908093</v>
       </c>
       <c r="C31" t="str">
-        <v>650</v>
+        <v>571</v>
       </c>
       <c r="D31" t="str">
-        <v>5000</v>
+        <v>300</v>
       </c>
       <c r="E31" t="str">
-        <v>2019-03-27 09:56:27</v>
+        <v>2019-03-27 12:36:52</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>丁培祥</v>
+        <v>郑鼎</v>
       </c>
       <c r="B32" t="str">
-        <v>13864997053</v>
+        <v>13641931035</v>
       </c>
       <c r="C32" t="str">
-        <v>465</v>
+        <v>642</v>
       </c>
       <c r="D32" t="str">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="E32" t="str">
-        <v>2019-03-27 09:06:53</v>
+        <v>2019-03-27 13:02:31</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>李洋</v>
+        <v>林政</v>
       </c>
       <c r="B33" t="str">
-        <v>13244360011</v>
+        <v>17306585083</v>
       </c>
       <c r="C33" t="str">
-        <v>613</v>
+        <v>557</v>
       </c>
       <c r="D33" t="str">
-        <v>1100</v>
+        <v>没</v>
       </c>
       <c r="E33" t="str">
-        <v>2019-03-27 09:36:01</v>
+        <v>2019-03-27 14:18:24</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>潘迎春</v>
+        <v>李语菲</v>
       </c>
       <c r="B34" t="str">
-        <v>17056578282</v>
+        <v>13413086667</v>
       </c>
       <c r="C34" t="str">
-        <v>644</v>
+        <v>591</v>
       </c>
       <c r="D34" t="str">
-        <v>3000</v>
+        <v>1700</v>
       </c>
       <c r="E34" t="str">
-        <v>2019-03-27 09:21:02</v>
+        <v>2019-03-27 12:52:36</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v xml:space="preserve"> 龙 红霞</v>
+        <v>谭鹃</v>
       </c>
       <c r="B35" t="str">
-        <v>18373470745</v>
+        <v>13758784880</v>
       </c>
       <c r="C35" t="str">
-        <v>650</v>
+        <v>485</v>
       </c>
       <c r="D35" t="str">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="E35" t="str">
-        <v>2019-03-27 09:13:42</v>
+        <v>2019-03-27 10:38:34</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>付善</v>
+        <v>朱济玲</v>
       </c>
       <c r="B36" t="str">
-        <v>15195328333</v>
+        <v>13395504075</v>
       </c>
       <c r="C36" t="str">
-        <v>553</v>
+        <v>662</v>
       </c>
       <c r="D36" t="str">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="E36" t="str">
-        <v>2019-03-27 09:47:02</v>
+        <v>2019-03-27 14:38:24</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>赵修强</v>
+        <v>王斌</v>
       </c>
       <c r="B37" t="str">
-        <v>13057905080</v>
+        <v>18389797960</v>
       </c>
       <c r="C37" t="str">
-        <v>561</v>
+        <v>518</v>
       </c>
       <c r="D37" t="str">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E37" t="str">
-        <v>2019-03-27 09:34:40</v>
+        <v>2019-03-27 11:42:56</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>袁凯</v>
+        <v>黄善东</v>
       </c>
       <c r="B38" t="str">
-        <v>13721584199</v>
+        <v>18046771770</v>
       </c>
       <c r="C38" t="str">
-        <v>720</v>
+        <v>440</v>
       </c>
       <c r="D38" t="str">
-        <v>10000</v>
+        <v>3500</v>
       </c>
       <c r="E38" t="str">
-        <v>2019-03-27 09:08:05</v>
+        <v>2019-03-27 13:32:40</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>周恋</v>
+        <v>鱼涛</v>
       </c>
       <c r="B39" t="str">
-        <v>13925119359</v>
+        <v>18791008308</v>
       </c>
       <c r="C39" t="str">
-        <v>638</v>
+        <v>561</v>
       </c>
       <c r="D39" t="str">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E39" t="str">
-        <v>2019-03-27 09:10:43</v>
+        <v>2019-03-27 10:02:36</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>邓利华</v>
+        <v>秦伟</v>
       </c>
       <c r="B40" t="str">
-        <v>15368001418</v>
+        <v>13906811575</v>
       </c>
       <c r="C40" t="str">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="D40" t="str">
-        <v>300</v>
+        <v>9000</v>
       </c>
       <c r="E40" t="str">
-        <v>2019-03-27 09:44:38</v>
+        <v>2019-03-27 12:14:08</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>王奇</v>
+        <v xml:space="preserve"> 龙 红霞</v>
       </c>
       <c r="B41" t="str">
-        <v>13619280575</v>
+        <v>18373470745</v>
       </c>
       <c r="C41" t="str">
-        <v>410</v>
+        <v>650</v>
       </c>
       <c r="D41" t="str">
-        <v>无</v>
+        <v>800</v>
       </c>
       <c r="E41" t="str">
-        <v>2019-03-27 09:51:25</v>
+        <v>2019-03-27 14:52:29</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>左自炳</v>
+        <v>赵修强</v>
       </c>
       <c r="B42" t="str">
-        <v>13971641919</v>
+        <v>13057905080</v>
       </c>
       <c r="C42" t="str">
-        <v>613</v>
+        <v>561</v>
       </c>
       <c r="D42" t="str">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="E42" t="str">
-        <v>2019-03-27 09:48:15</v>
+        <v>2019-03-27 13:59:29</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>林政</v>
+        <v>方小冰</v>
       </c>
       <c r="B43" t="str">
-        <v>17306585083</v>
+        <v>18314323682</v>
       </c>
       <c r="C43" t="str">
-        <v>557</v>
+        <v>476</v>
       </c>
       <c r="D43" t="str">
-        <v>没</v>
+        <v>500</v>
       </c>
       <c r="E43" t="str">
-        <v>2019-03-27 09:53:52</v>
+        <v>2019-03-27 09:26:15</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>侯森</v>
+        <v>张鑫</v>
       </c>
       <c r="B44" t="str">
-        <v>15237690896</v>
+        <v>16619922435</v>
       </c>
       <c r="C44" t="str">
-        <v>696</v>
+        <v>550</v>
       </c>
       <c r="D44" t="str">
-        <v>7000</v>
+        <v>1800</v>
       </c>
       <c r="E44" t="str">
-        <v>2019-03-27 09:20:41</v>
+        <v>2019-03-27 13:11:14</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>王斌</v>
+        <v>袁凯</v>
       </c>
       <c r="B45" t="str">
-        <v>18389797960</v>
+        <v>13721584199</v>
       </c>
       <c r="C45" t="str">
-        <v>518</v>
+        <v>720</v>
       </c>
       <c r="D45" t="str">
-        <v>800</v>
+        <v>10000</v>
       </c>
       <c r="E45" t="str">
-        <v>2019-03-27 09:01:14</v>
+        <v>2019-03-27 11:29:08</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>张营</v>
+        <v>鱼涛</v>
       </c>
       <c r="B46" t="str">
-        <v>15816626046</v>
+        <v>13991006855</v>
       </c>
       <c r="C46" t="str">
-        <v>602</v>
+        <v>561</v>
       </c>
       <c r="D46" t="str">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="E46" t="str">
-        <v>2019-03-27 09:00:30</v>
+        <v>2019-03-27 09:30:29</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>何文龙</v>
+        <v>林玮</v>
       </c>
       <c r="B47" t="str">
-        <v>18405657588</v>
+        <v>18476829451</v>
       </c>
       <c r="C47" t="str">
-        <v>509</v>
+        <v>690</v>
       </c>
       <c r="D47" t="str">
-        <v>50</v>
+        <v>3800</v>
       </c>
       <c r="E47" t="str">
-        <v>2019-03-27 09:21:08</v>
+        <v>2019-03-27 14:23:23</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>陈光成</v>
+        <v>熊伟</v>
       </c>
       <c r="B48" t="str">
-        <v>13710635946</v>
+        <v>18995988355</v>
       </c>
       <c r="C48" t="str">
-        <v>618</v>
+        <v>644</v>
       </c>
       <c r="D48" t="str">
-        <v>5000</v>
+        <v>600</v>
       </c>
       <c r="E48" t="str">
-        <v>2019-03-27 09:53:56</v>
+        <v>2019-03-27 09:16:45</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>荀彦杰</v>
+        <v>张营</v>
       </c>
       <c r="B49" t="str">
-        <v>17806939887</v>
+        <v>15816626046</v>
       </c>
       <c r="C49" t="str">
-        <v>626</v>
+        <v>602</v>
       </c>
       <c r="D49" t="str">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E49" t="str">
-        <v>2019-03-27 09:19:45</v>
+        <v>2019-03-27 12:28:25</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>何涛</v>
+        <v>唐小云</v>
       </c>
       <c r="B50" t="str">
-        <v>15681340301</v>
+        <v>15284841881</v>
       </c>
       <c r="C50" t="str">
-        <v>578</v>
+        <v>669</v>
       </c>
       <c r="D50" t="str">
-        <v>未开通</v>
+        <v>5500</v>
       </c>
       <c r="E50" t="str">
-        <v>2019-03-27 09:14:12</v>
+        <v>2019-03-27 12:51:27</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>朱济玲</v>
+        <v>范小平</v>
       </c>
       <c r="B51" t="str">
-        <v>13395504075</v>
+        <v>15283689888</v>
       </c>
       <c r="C51" t="str">
-        <v>662</v>
+        <v>652</v>
       </c>
       <c r="D51" t="str">
-        <v>900</v>
+        <v>6500</v>
       </c>
       <c r="E51" t="str">
-        <v>2019-03-27 09:36:59</v>
+        <v>2019-03-27 15:02:44</v>
       </c>
     </row>
     <row r="52">
@@ -1262,7 +1262,7 @@
         <v>800</v>
       </c>
       <c r="E52" t="str">
-        <v>2019-03-27 09:39:23</v>
+        <v>2019-03-27 13:37:19</v>
       </c>
     </row>
   </sheetData>
